--- a/_data/ni/ni9596/individueel_eindstand_dworp_123_9596.xlsx
+++ b/_data/ni/ni9596/individueel_eindstand_dworp_123_9596.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="225">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -154,90 +154,6 @@
     <t>5F</t>
   </si>
   <si>
-    <t>Ludisan 2</t>
-  </si>
-  <si>
-    <t>Carnières</t>
-  </si>
-  <si>
-    <t>Fous du Roy 2</t>
-  </si>
-  <si>
-    <t>Roque 4</t>
-  </si>
-  <si>
-    <t>CRE Charleroi 3</t>
-  </si>
-  <si>
-    <t>Lessines 1</t>
-  </si>
-  <si>
-    <t>Mons 4</t>
-  </si>
-  <si>
-    <t>Binche</t>
-  </si>
-  <si>
-    <t>La Louvière</t>
-  </si>
-  <si>
-    <t>Dendermonde</t>
-  </si>
-  <si>
-    <t>Ruy Lopez Gent 8</t>
-  </si>
-  <si>
-    <t>Lokeren 1</t>
-  </si>
-  <si>
-    <t>Opwijk 1</t>
-  </si>
-  <si>
-    <t>Mons 5</t>
-  </si>
-  <si>
-    <t>MSV Eeklo 4</t>
-  </si>
-  <si>
-    <t>Tervuren</t>
-  </si>
-  <si>
-    <t>TSM Mechelen 3</t>
-  </si>
-  <si>
-    <t>Geraardsbergen 2</t>
-  </si>
-  <si>
-    <t>Benéchecs 1</t>
-  </si>
-  <si>
-    <t>Ruisbroek</t>
-  </si>
-  <si>
-    <t>Humbeek 3</t>
-  </si>
-  <si>
-    <t>Fous du Roy 3</t>
-  </si>
-  <si>
-    <t>Opwijk 2</t>
-  </si>
-  <si>
-    <t>Londerzeel</t>
-  </si>
-  <si>
-    <t>Machelen 2</t>
-  </si>
-  <si>
-    <t>Hoboken 9</t>
-  </si>
-  <si>
-    <t>Woluwe 2</t>
-  </si>
-  <si>
-    <t>Roque 5</t>
-  </si>
-  <si>
     <t>228 Dworp 1</t>
   </si>
   <si>
@@ -292,261 +208,42 @@
     <t>ng</t>
   </si>
   <si>
-    <t>De Muynck D</t>
-  </si>
-  <si>
-    <t>Denivet A</t>
-  </si>
-  <si>
-    <t>De Pauw D</t>
-  </si>
-  <si>
-    <t>Fosset F</t>
-  </si>
-  <si>
-    <t>Lesage C</t>
-  </si>
-  <si>
-    <t>Van Hoof W</t>
-  </si>
-  <si>
-    <t>Verbruggen G</t>
-  </si>
-  <si>
-    <t>Vanderfraenen J</t>
-  </si>
-  <si>
-    <t>Crockaert P</t>
-  </si>
-  <si>
-    <t>Coupaye M</t>
-  </si>
-  <si>
-    <t>Sterpin B</t>
-  </si>
-  <si>
-    <t>Van Ham G</t>
-  </si>
-  <si>
     <t>Verstreken Erik</t>
   </si>
   <si>
-    <t>Szklanecki S</t>
-  </si>
-  <si>
-    <t>Serrure G</t>
-  </si>
-  <si>
-    <t>De Brouwer P</t>
-  </si>
-  <si>
-    <t>Lasse D</t>
-  </si>
-  <si>
-    <t>van Rooijen P</t>
-  </si>
-  <si>
-    <t>De Backere Jean Pierre</t>
-  </si>
-  <si>
-    <t>Mulkers W</t>
-  </si>
-  <si>
-    <t>Bolca S</t>
-  </si>
-  <si>
-    <t>Tibucle 3</t>
-  </si>
-  <si>
-    <t>Fischer M</t>
-  </si>
-  <si>
     <t>Van Loo Georges</t>
   </si>
   <si>
-    <t>Van Tuykom A</t>
-  </si>
-  <si>
-    <t>Tassigny F</t>
-  </si>
-  <si>
-    <t>Vandenhove A</t>
-  </si>
-  <si>
     <t>Vanderhelstraete Luc</t>
   </si>
   <si>
-    <t>Vanderhelstraete Jean Jacques</t>
-  </si>
-  <si>
-    <t>Sutherland D</t>
-  </si>
-  <si>
     <t>Van Speybroeck Philippe</t>
   </si>
   <si>
-    <t>Goethals K</t>
-  </si>
-  <si>
-    <t>Ongenaert F</t>
-  </si>
-  <si>
-    <t>Van Der Borght K</t>
-  </si>
-  <si>
-    <t>Rando M</t>
-  </si>
-  <si>
-    <t>Vayness T</t>
-  </si>
-  <si>
-    <t>Antoine M</t>
-  </si>
-  <si>
-    <t>Rabahie M</t>
-  </si>
-  <si>
-    <t>Degembre P</t>
-  </si>
-  <si>
-    <t>Laurent M</t>
-  </si>
-  <si>
     <t>Oger Daniel</t>
   </si>
   <si>
-    <t>Dethy D</t>
-  </si>
-  <si>
     <t>Matthys Kris</t>
   </si>
   <si>
-    <t>Van Hauwe H</t>
-  </si>
-  <si>
     <t>Lallemand Paul</t>
   </si>
   <si>
-    <t>Jacob R</t>
-  </si>
-  <si>
-    <t>Fleurackers N</t>
-  </si>
-  <si>
-    <t>De Jonghe D</t>
-  </si>
-  <si>
-    <t>Fleurackers J</t>
-  </si>
-  <si>
-    <t>Vanlerberghe F</t>
-  </si>
-  <si>
-    <t>Gorczyca X</t>
-  </si>
-  <si>
-    <t>Giansante P</t>
-  </si>
-  <si>
-    <t>Maesfranckx P</t>
-  </si>
-  <si>
-    <t>Del Moleno A</t>
-  </si>
-  <si>
-    <t>Buysse P</t>
-  </si>
-  <si>
-    <t>Verstraeten J</t>
-  </si>
-  <si>
-    <t>Verledens N</t>
-  </si>
-  <si>
-    <t>De Causmaecker P</t>
-  </si>
-  <si>
-    <t>Buelens R</t>
-  </si>
-  <si>
-    <t>Ringoet M</t>
-  </si>
-  <si>
-    <t>Gruytaert K</t>
-  </si>
-  <si>
-    <t>Demayer J</t>
-  </si>
-  <si>
-    <t>Dubuisson A</t>
-  </si>
-  <si>
-    <t>Pieropan L</t>
-  </si>
-  <si>
-    <t>George M</t>
-  </si>
-  <si>
     <t>(forfait)</t>
   </si>
   <si>
-    <t>Speybroeck E</t>
-  </si>
-  <si>
-    <t>Vercruyse V</t>
-  </si>
-  <si>
-    <t>Bekaert M</t>
-  </si>
-  <si>
-    <t>Cattoir E</t>
-  </si>
-  <si>
     <t>Devroe Jan</t>
   </si>
   <si>
     <t>Verbist Albert</t>
   </si>
   <si>
-    <t>Zuallaert J</t>
-  </si>
-  <si>
-    <t>Buffel E</t>
-  </si>
-  <si>
     <t>Masure Luc</t>
   </si>
   <si>
-    <t>Knudde F</t>
-  </si>
-  <si>
-    <t>Verbeque René</t>
-  </si>
-  <si>
-    <t>De Vleeschauwer R</t>
-  </si>
-  <si>
-    <t>Vereecken FH</t>
-  </si>
-  <si>
-    <t>De Ridder M</t>
-  </si>
-  <si>
-    <t>De Vriendt A</t>
-  </si>
-  <si>
     <t>Van Aken kris</t>
   </si>
   <si>
-    <t>Londers J</t>
-  </si>
-  <si>
-    <t>Schrevens J</t>
-  </si>
-  <si>
-    <t>Pelemans J</t>
-  </si>
-  <si>
     <t>De Smet Karl</t>
   </si>
   <si>
@@ -568,27 +265,12 @@
     <t>Canneel Michel</t>
   </si>
   <si>
-    <t>Grauwels P</t>
-  </si>
-  <si>
-    <t>Garzotti P</t>
-  </si>
-  <si>
-    <t>Bouselmati Y</t>
-  </si>
-  <si>
-    <t>De Praetere P</t>
-  </si>
-  <si>
     <t>521 Tournai</t>
   </si>
   <si>
     <t>Vandecasteele Louis</t>
   </si>
   <si>
-    <t>Domus O</t>
-  </si>
-  <si>
     <t>Uylenbroeck Roland</t>
   </si>
   <si>
@@ -598,9 +280,6 @@
     <t>Lejeune Guy</t>
   </si>
   <si>
-    <t>Montagnard 2</t>
-  </si>
-  <si>
     <t>Rogiers Jan</t>
   </si>
   <si>
@@ -610,21 +289,6 @@
     <t>Valcke Rudy</t>
   </si>
   <si>
-    <t>De Bie G</t>
-  </si>
-  <si>
-    <t>De Coninck C</t>
-  </si>
-  <si>
-    <t>De Bontridder G</t>
-  </si>
-  <si>
-    <t>De Block G</t>
-  </si>
-  <si>
-    <t>Victor O</t>
-  </si>
-  <si>
     <t>San Lorenzo Nordine</t>
   </si>
   <si>
@@ -634,9 +298,6 @@
     <t>Pitropakis Kyriakos</t>
   </si>
   <si>
-    <t>Degrave Geoffry</t>
-  </si>
-  <si>
     <t>Noe Philippe</t>
   </si>
   <si>
@@ -667,15 +328,6 @@
     <t>Canneel Daniel</t>
   </si>
   <si>
-    <t>Demuynck Jan</t>
-  </si>
-  <si>
-    <t>De Saeger Johan</t>
-  </si>
-  <si>
-    <t>Defre Willy</t>
-  </si>
-  <si>
     <t>Peelman Lieven</t>
   </si>
   <si>
@@ -697,10 +349,358 @@
     <t>bron: het groen jaarverslag 1995-1996 van Koen Malfliet</t>
   </si>
   <si>
-    <t>Jean Jaures Gent 3</t>
-  </si>
-  <si>
-    <t>Doorbraak Aalter</t>
+    <t>260 Humbeek 3</t>
+  </si>
+  <si>
+    <t>130 Hoboken 9</t>
+  </si>
+  <si>
+    <t>402 Jean Jaures Gent 3</t>
+  </si>
+  <si>
+    <t>475 Doorbraak Aalter</t>
+  </si>
+  <si>
+    <t>401 Ruy Lopez Gent 8</t>
+  </si>
+  <si>
+    <t>166 TSM Mechelen 3</t>
+  </si>
+  <si>
+    <t>203 Fous du Roy 2</t>
+  </si>
+  <si>
+    <t>501 CRE Charleroi 3</t>
+  </si>
+  <si>
+    <t>203 Fous du Roy 3</t>
+  </si>
+  <si>
+    <t>229 Woluwe 2</t>
+  </si>
+  <si>
+    <t>244 Tibucle 3</t>
+  </si>
+  <si>
+    <t>533 Lessines 1</t>
+  </si>
+  <si>
+    <t>506 Mons 4</t>
+  </si>
+  <si>
+    <t>523 Binche</t>
+  </si>
+  <si>
+    <t>511 La Louvière</t>
+  </si>
+  <si>
+    <t>245 Roque 5</t>
+  </si>
+  <si>
+    <t>245 Roque 4</t>
+  </si>
+  <si>
+    <t>418 Geraardsbergen 2</t>
+  </si>
+  <si>
+    <t>261 Opwijk 2</t>
+  </si>
+  <si>
+    <t>261 Opwijk 1</t>
+  </si>
+  <si>
+    <t>249 Ruisbroek</t>
+  </si>
+  <si>
+    <t>910 Ludisan 2</t>
+  </si>
+  <si>
+    <t>204 Benéchecs 1</t>
+  </si>
+  <si>
+    <t>506 Mons 5</t>
+  </si>
+  <si>
+    <t>425 Dendermonde</t>
+  </si>
+  <si>
+    <t>436 Lokeren 1</t>
+  </si>
+  <si>
+    <t>241 Tervuren</t>
+  </si>
+  <si>
+    <t>240 Machelen 2</t>
+  </si>
+  <si>
+    <t>268 Londerzeel</t>
+  </si>
+  <si>
+    <t>422 MSV Eeklo 4</t>
+  </si>
+  <si>
+    <t>505 Carnières</t>
+  </si>
+  <si>
+    <t>526 Montagnards 2</t>
+  </si>
+  <si>
+    <t>De Muynck Daniel</t>
+  </si>
+  <si>
+    <t>Denivet Axel</t>
+  </si>
+  <si>
+    <t>Fosset François</t>
+  </si>
+  <si>
+    <t>Lesage Christiaan</t>
+  </si>
+  <si>
+    <t>Van Hoof Wilfried</t>
+  </si>
+  <si>
+    <t>Verbruggen Glenn</t>
+  </si>
+  <si>
+    <t>Coupaye Michel</t>
+  </si>
+  <si>
+    <t>Sterpin Benoït</t>
+  </si>
+  <si>
+    <t>Van Ham Geneviève</t>
+  </si>
+  <si>
+    <t>Cockaerts Philippe</t>
+  </si>
+  <si>
+    <t>Szklanecki Stanis</t>
+  </si>
+  <si>
+    <t>Serrure Gregory</t>
+  </si>
+  <si>
+    <t>De Brouwer Philippe</t>
+  </si>
+  <si>
+    <t>Lasse David</t>
+  </si>
+  <si>
+    <t>De Backere Jean-Pierre</t>
+  </si>
+  <si>
+    <t>van Rooijen Paul</t>
+  </si>
+  <si>
+    <t>Mulkers Willy</t>
+  </si>
+  <si>
+    <t>Bolca Sinan</t>
+  </si>
+  <si>
+    <t>De Pauw Damien</t>
+  </si>
+  <si>
+    <t>Van Der Fraenen Joep</t>
+  </si>
+  <si>
+    <t>Fischer Marc</t>
+  </si>
+  <si>
+    <t>Van Tuykom Alex</t>
+  </si>
+  <si>
+    <t>Tassigny Frans</t>
+  </si>
+  <si>
+    <t>Vanderhelstraete Jean-Jacques</t>
+  </si>
+  <si>
+    <t>Sutherland Douglas</t>
+  </si>
+  <si>
+    <t>Van Den Hove Anugrah</t>
+  </si>
+  <si>
+    <t>Rando Manuel</t>
+  </si>
+  <si>
+    <t>Vayness Tsach</t>
+  </si>
+  <si>
+    <t>Antoine Maxime</t>
+  </si>
+  <si>
+    <t>Rabahie Michael</t>
+  </si>
+  <si>
+    <t>Goethals Kristof</t>
+  </si>
+  <si>
+    <t>Ongenaert Frank</t>
+  </si>
+  <si>
+    <t>Van Der Borght Kwinten</t>
+  </si>
+  <si>
+    <t>Degembre Pierre</t>
+  </si>
+  <si>
+    <t>Laurent Michel</t>
+  </si>
+  <si>
+    <t>Dethy David</t>
+  </si>
+  <si>
+    <t>Van Hauwe Hendrik</t>
+  </si>
+  <si>
+    <t>Jacob Rudy</t>
+  </si>
+  <si>
+    <t>Vanlerberghe Filip</t>
+  </si>
+  <si>
+    <t>Fleurackers Joris</t>
+  </si>
+  <si>
+    <t>Fleurackers Norbert</t>
+  </si>
+  <si>
+    <t>De Jonghe Dave</t>
+  </si>
+  <si>
+    <t>Gorczyca Xavier</t>
+  </si>
+  <si>
+    <t>Giansante Peppino</t>
+  </si>
+  <si>
+    <t>Maesfranckx Philippe</t>
+  </si>
+  <si>
+    <t>Del Molino Amadeo</t>
+  </si>
+  <si>
+    <t>Buysse Pieter</t>
+  </si>
+  <si>
+    <t>Verstraeten Jan</t>
+  </si>
+  <si>
+    <t>Verledens Noël</t>
+  </si>
+  <si>
+    <t>De Causmaecker Patrick</t>
+  </si>
+  <si>
+    <t>Buelens Roger</t>
+  </si>
+  <si>
+    <t>Ringoet Marc</t>
+  </si>
+  <si>
+    <t>De Maeyer Jan</t>
+  </si>
+  <si>
+    <t>Gruytaert Koen</t>
+  </si>
+  <si>
+    <t>Pieropan Louis</t>
+  </si>
+  <si>
+    <t>George Michael</t>
+  </si>
+  <si>
+    <t>Dubuisson Raymond</t>
+  </si>
+  <si>
+    <t>Vercruyse Vincent</t>
+  </si>
+  <si>
+    <t>Speybroeck Eric</t>
+  </si>
+  <si>
+    <t>Bekaert Maarten</t>
+  </si>
+  <si>
+    <t>Cattoir Eric</t>
+  </si>
+  <si>
+    <t>Zuallaert Jan</t>
+  </si>
+  <si>
+    <t>Buffel Ely</t>
+  </si>
+  <si>
+    <t>Knudde Francis</t>
+  </si>
+  <si>
+    <t>Verbeque Roger</t>
+  </si>
+  <si>
+    <t>De Ridder Michael</t>
+  </si>
+  <si>
+    <t>De Vriendt Augustin</t>
+  </si>
+  <si>
+    <t>De Vleeschauwer Raoul</t>
+  </si>
+  <si>
+    <t>Vereeken Franky</t>
+  </si>
+  <si>
+    <t>Schrevens Jelle</t>
+  </si>
+  <si>
+    <t>Pelemans Joris</t>
+  </si>
+  <si>
+    <t>Londers Jan</t>
+  </si>
+  <si>
+    <t>Degrave Geoffrey</t>
+  </si>
+  <si>
+    <t>Grauwels Peter</t>
+  </si>
+  <si>
+    <t>Garzotti Paolo</t>
+  </si>
+  <si>
+    <t>De Praetere Paul</t>
+  </si>
+  <si>
+    <t>Bouselmati Youssef</t>
+  </si>
+  <si>
+    <t>Demunck Jan</t>
+  </si>
+  <si>
+    <t>Defre Walter</t>
+  </si>
+  <si>
+    <t>Desaegher Johan</t>
+  </si>
+  <si>
+    <t>Domus Oswald</t>
+  </si>
+  <si>
+    <t>De Bie Gert</t>
+  </si>
+  <si>
+    <t>Victor Oscar</t>
+  </si>
+  <si>
+    <t>De Block Gert</t>
+  </si>
+  <si>
+    <t>De Coninck Chris</t>
+  </si>
+  <si>
+    <t>Debontridder Godfried</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1302,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,9 +1484,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1866,14 +1863,14 @@
       <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="D9" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1884,9 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1925,15 +1920,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1971,11 +1968,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>71099</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>88</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1824</v>
+      </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
@@ -1989,21 +1990,25 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="J5" s="18">
-        <v>1958</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>43605</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1684</v>
+      </c>
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
@@ -2017,21 +2022,25 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J6" s="18">
-        <v>1891</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>81388</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1735</v>
+      </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -2045,21 +2054,25 @@
         <v>353</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J7" s="18">
-        <v>1876</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>93122</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1715</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
@@ -2073,10 +2086,10 @@
         <v>26816</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1781</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2114,9 +2127,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1739.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2131,7 +2144,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1908.3333333333333</v>
+        <v>1868.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2146,15 +2159,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2192,11 +2207,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>63134</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1979</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -2210,21 +2229,25 @@
         <v>76325</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J15" s="18">
-        <v>1905</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>81949</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>98</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1871</v>
+      </c>
       <c r="E16" s="10">
         <v>1</v>
       </c>
@@ -2238,21 +2261,25 @@
         <v>43419</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J16" s="18">
-        <v>1881</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>50113</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1786</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -2266,21 +2293,25 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J17" s="18">
-        <v>1779</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>49034</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1822</v>
+      </c>
       <c r="E18" s="12">
         <v>0.5</v>
       </c>
@@ -2294,18 +2325,18 @@
         <v>27715</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J18" s="18">
-        <v>1667</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1864.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -2320,7 +2351,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1808</v>
+        <v>1807.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -2335,15 +2366,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2381,11 +2414,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>84107</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1582</v>
+      </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
@@ -2399,21 +2436,25 @@
         <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J23" s="18">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>88072</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1628</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -2427,21 +2468,25 @@
         <v>9954</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="J24" s="18">
-        <v>1673</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>73423</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1601</v>
+      </c>
       <c r="E25" s="10">
         <v>1</v>
       </c>
@@ -2452,24 +2497,28 @@
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J25" s="18">
-        <v>1550</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>71439</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>214</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1400</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -2483,18 +2532,18 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J26" s="18">
-        <v>1587</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1552.75</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -2509,7 +2558,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1638</v>
+        <v>1667.5</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -2658,9 +2707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2695,9 +2742,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2707,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2749,10 +2798,10 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D5" s="18">
-        <v>1958</v>
+        <v>2006</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -2763,11 +2812,15 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>73504</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>80</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1936</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -2777,10 +2830,10 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D6" s="18">
-        <v>1891</v>
+        <v>1843</v>
       </c>
       <c r="E6" s="10">
         <v>0.5</v>
@@ -2791,11 +2844,15 @@
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>84735</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1773</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -2805,10 +2862,10 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D7" s="18">
-        <v>1876</v>
+        <v>1843</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -2819,11 +2876,15 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>49336</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1691</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -2833,10 +2894,10 @@
         <v>43346</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D8" s="18">
-        <v>1587</v>
+        <v>1613</v>
       </c>
       <c r="E8" s="10">
         <v>0.5</v>
@@ -2847,11 +2908,15 @@
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>74161</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1678</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -2890,7 +2955,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1828</v>
+        <v>1826.25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2903,9 +2968,9 @@
         <v>2</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1769.5</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2916,9 +2981,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2928,7 +2995,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2970,10 +3037,10 @@
         <v>76333</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D15" s="18">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -2984,11 +3051,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>21938</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>216</v>
+      </c>
+      <c r="J15" s="18">
+        <v>2125</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -2998,10 +3069,10 @@
         <v>655</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D16" s="18">
-        <v>1779</v>
+        <v>1845</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -3012,11 +3083,15 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>21717</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>218</v>
+      </c>
+      <c r="J16" s="18">
+        <v>2016</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -3026,10 +3101,10 @@
         <v>27715</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D17" s="18">
-        <v>1667</v>
+        <v>1629</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -3040,11 +3115,15 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>41955</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>217</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1983</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -3054,10 +3133,10 @@
         <v>12769</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -3068,18 +3147,22 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>89265</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1935</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1773</v>
+        <v>1780.6666666666667</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -3092,9 +3175,9 @@
         <v>2</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>2014.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3105,9 +3188,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3117,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -3159,10 +3244,10 @@
         <v>33910</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D23" s="18">
-        <v>1765</v>
+        <v>1728</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -3173,11 +3258,15 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>1767</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1917</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -3187,10 +3276,10 @@
         <v>43419</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D24" s="18">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="E24" s="10">
         <v>0.5</v>
@@ -3201,24 +3290,28 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>70572</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1802</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D25" s="18">
-        <v>1550</v>
+        <v>1679</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
@@ -3229,11 +3322,15 @@
       <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>65935</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1808</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -3243,10 +3340,10 @@
         <v>26816</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1781</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -3257,18 +3354,22 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>15482</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1658</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1685.6666666666667</v>
+        <v>1733</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -3281,9 +3382,9 @@
         <v>1.5</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1796.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -3433,7 +3534,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3473,15 +3574,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -3521,7 +3624,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -3533,25 +3636,25 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19">
-        <v>2283</v>
-      </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="18">
-        <v>1958</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>68667</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1717</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
@@ -3565,21 +3668,25 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J6" s="18">
-        <v>1891</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>64441</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1671</v>
+      </c>
       <c r="E7" s="10">
         <v>0</v>
       </c>
@@ -3593,10 +3700,10 @@
         <v>353</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J7" s="18">
-        <v>1876</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3605,7 +3712,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -3617,15 +3724,11 @@
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="19">
-        <v>26816</v>
-      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>87</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -3662,9 +3765,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1694</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -3679,7 +3782,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1908.3333333333333</v>
+        <v>1843</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3694,15 +3797,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3740,11 +3845,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>48569</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2106</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -3758,21 +3867,25 @@
         <v>9270</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J15" s="18">
-        <v>1887</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>34151</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1823</v>
+      </c>
       <c r="E16" s="10">
         <v>1</v>
       </c>
@@ -3786,21 +3899,25 @@
         <v>76333</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J16" s="18">
-        <v>1873</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>14419</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1716</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -3814,21 +3931,25 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J17" s="18">
-        <v>1779</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>26581</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1697</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -3842,18 +3963,18 @@
         <v>27715</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J18" s="18">
-        <v>1667</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1835.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -3868,7 +3989,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1801.5</v>
+        <v>1797.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3883,15 +4004,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -3929,11 +4052,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>48194</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>223</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1626</v>
+      </c>
       <c r="E23" s="10">
         <v>0.5</v>
       </c>
@@ -3947,21 +4074,25 @@
         <v>33910</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J23" s="18">
-        <v>1765</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>27791</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1555</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -3975,21 +4106,25 @@
         <v>43419</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J24" s="18">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>12670</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>222</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1399</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -4003,21 +4138,25 @@
         <v>9954</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="J25" s="18">
-        <v>1673</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>26484</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>221</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1145</v>
+      </c>
       <c r="E26" s="12">
         <v>1</v>
       </c>
@@ -4031,18 +4170,18 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J26" s="18">
-        <v>1587</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1431.25</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -4057,7 +4196,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1691.75</v>
+        <v>1679.75</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -4206,9 +4345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ280"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4317,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>37</v>
@@ -4468,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C5" s="41">
         <v>1.5</v>
@@ -4619,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C6" s="41">
         <v>2</v>
@@ -4770,7 +4907,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -4921,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C8" s="41">
         <v>0.5</v>
@@ -5072,7 +5209,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C9" s="41">
         <v>2</v>
@@ -5223,7 +5360,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C10" s="41">
         <v>0.5</v>
@@ -5374,7 +5511,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C11" s="41">
         <v>0.5</v>
@@ -5525,7 +5662,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="C12" s="41">
         <v>1</v>
@@ -5676,7 +5813,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C13" s="41">
         <v>0.5</v>
@@ -5827,7 +5964,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C14" s="41">
         <v>0.5</v>
@@ -5978,7 +6115,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="C15" s="46">
         <v>1</v>
@@ -6223,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>37</v>
@@ -6321,42 +6458,42 @@
         <f>IF(N18="","",IF(N18&gt;$C29,1,IF(N18=$C29,0.5,0)))</f>
         <v>1</v>
       </c>
-      <c r="AF18" s="69" t="s">
+      <c r="AF18" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AG18" s="70">
+      <c r="AG18" s="69">
         <f>D18+C19</f>
         <v>4</v>
       </c>
-      <c r="AH18" s="70">
+      <c r="AH18" s="69">
         <f>E18+C20</f>
         <v>4</v>
       </c>
-      <c r="AI18" s="70">
+      <c r="AI18" s="69">
         <f>F18+C21</f>
         <v>4</v>
       </c>
-      <c r="AJ18" s="70">
+      <c r="AJ18" s="69">
         <f>G18+C22</f>
         <v>4</v>
       </c>
-      <c r="AK18" s="70">
+      <c r="AK18" s="69">
         <f>H18+C23</f>
         <v>4</v>
       </c>
-      <c r="AL18" s="70">
+      <c r="AL18" s="69">
         <f>I18+C24</f>
         <v>4</v>
       </c>
-      <c r="AM18" s="70">
+      <c r="AM18" s="69">
         <f>J18+C25</f>
         <v>4</v>
       </c>
-      <c r="AN18" s="70">
+      <c r="AN18" s="69">
         <f>K18+C26</f>
         <v>4</v>
       </c>
-      <c r="AO18" s="70">
+      <c r="AO18" s="69">
         <f>L18+C27</f>
         <v>4</v>
       </c>
@@ -6374,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C19" s="41">
         <v>2.5</v>
@@ -6472,42 +6609,42 @@
         <f>IF(N19="","",IF(N19&gt;$D29,1,IF(N19=$D29,0.5,0)))</f>
         <v>1</v>
       </c>
-      <c r="AF19" s="71">
+      <c r="AF19" s="70">
         <f>C19+D18</f>
         <v>4</v>
       </c>
-      <c r="AG19" s="72" t="s">
+      <c r="AG19" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AH19" s="72">
+      <c r="AH19" s="71">
         <f>E19+D20</f>
         <v>4</v>
       </c>
-      <c r="AI19" s="72">
+      <c r="AI19" s="71">
         <f>F19+D21</f>
         <v>4</v>
       </c>
-      <c r="AJ19" s="72">
+      <c r="AJ19" s="71">
         <f>G19+D22</f>
         <v>4</v>
       </c>
-      <c r="AK19" s="72">
+      <c r="AK19" s="71">
         <f>H19+D23</f>
         <v>4</v>
       </c>
-      <c r="AL19" s="72">
+      <c r="AL19" s="71">
         <f>I19+D24</f>
         <v>4</v>
       </c>
-      <c r="AM19" s="72">
+      <c r="AM19" s="71">
         <f>J19+D25</f>
         <v>4</v>
       </c>
-      <c r="AN19" s="72">
+      <c r="AN19" s="71">
         <f>K19+D26</f>
         <v>4</v>
       </c>
-      <c r="AO19" s="72">
+      <c r="AO19" s="71">
         <f>L19+D27</f>
         <v>4</v>
       </c>
@@ -6525,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C20" s="41">
         <v>1.5</v>
@@ -6623,42 +6760,42 @@
         <f>IF(N20="","",IF(N20&gt;$E29,1,IF(N20=$E29,0.5,0)))</f>
         <v>1</v>
       </c>
-      <c r="AF20" s="71">
+      <c r="AF20" s="70">
         <f>C20+E18</f>
         <v>4</v>
       </c>
-      <c r="AG20" s="72">
+      <c r="AG20" s="71">
         <f>D20+E19</f>
         <v>4</v>
       </c>
-      <c r="AH20" s="72" t="s">
+      <c r="AH20" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AI20" s="72">
+      <c r="AI20" s="71">
         <f>F20+E21</f>
         <v>4</v>
       </c>
-      <c r="AJ20" s="72">
+      <c r="AJ20" s="71">
         <f>G20+E22</f>
         <v>4</v>
       </c>
-      <c r="AK20" s="72">
+      <c r="AK20" s="71">
         <f>H20+E23</f>
         <v>4</v>
       </c>
-      <c r="AL20" s="72">
+      <c r="AL20" s="71">
         <f>I20+E24</f>
         <v>4</v>
       </c>
-      <c r="AM20" s="72">
+      <c r="AM20" s="71">
         <f>J20+E25</f>
         <v>4</v>
       </c>
-      <c r="AN20" s="72">
+      <c r="AN20" s="71">
         <f>K20+E26</f>
         <v>4</v>
       </c>
-      <c r="AO20" s="72">
+      <c r="AO20" s="71">
         <f>L20+E27</f>
         <v>4</v>
       </c>
@@ -6676,7 +6813,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C21" s="41">
         <v>1</v>
@@ -6774,42 +6911,42 @@
         <f>IF(N21="","",IF(N21&gt;$F29,1,IF(N21=$F29,0.5,0)))</f>
         <v>1</v>
       </c>
-      <c r="AF21" s="71">
+      <c r="AF21" s="70">
         <f>C21+F18</f>
         <v>4</v>
       </c>
-      <c r="AG21" s="72">
+      <c r="AG21" s="71">
         <f>D21+F19</f>
         <v>4</v>
       </c>
-      <c r="AH21" s="72">
+      <c r="AH21" s="71">
         <f>E21+F20</f>
         <v>4</v>
       </c>
-      <c r="AI21" s="72" t="s">
+      <c r="AI21" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AJ21" s="72">
+      <c r="AJ21" s="71">
         <f>G21+F22</f>
         <v>4</v>
       </c>
-      <c r="AK21" s="72">
+      <c r="AK21" s="71">
         <f>H21+F23</f>
         <v>4</v>
       </c>
-      <c r="AL21" s="72">
+      <c r="AL21" s="71">
         <f>I21+F24</f>
         <v>4</v>
       </c>
-      <c r="AM21" s="72">
+      <c r="AM21" s="71">
         <f>J21+F25</f>
         <v>4</v>
       </c>
-      <c r="AN21" s="72">
+      <c r="AN21" s="71">
         <f>K21+F26</f>
         <v>4</v>
       </c>
-      <c r="AO21" s="72">
+      <c r="AO21" s="71">
         <f>L21+F27</f>
         <v>4</v>
       </c>
@@ -6827,7 +6964,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C22" s="41">
         <v>1</v>
@@ -6925,42 +7062,42 @@
         <f>IF(N22="","",IF(N22&gt;$G29,1,IF(N22=$G29,0.5,0)))</f>
         <v>1</v>
       </c>
-      <c r="AF22" s="71">
+      <c r="AF22" s="70">
         <f>C22+G18</f>
         <v>4</v>
       </c>
-      <c r="AG22" s="72">
+      <c r="AG22" s="71">
         <f>D22+G19</f>
         <v>4</v>
       </c>
-      <c r="AH22" s="72">
+      <c r="AH22" s="71">
         <f>E22+G20</f>
         <v>4</v>
       </c>
-      <c r="AI22" s="72">
+      <c r="AI22" s="71">
         <f>F22+G21</f>
         <v>4</v>
       </c>
-      <c r="AJ22" s="72" t="s">
+      <c r="AJ22" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AK22" s="72">
+      <c r="AK22" s="71">
         <f>H22+G23</f>
         <v>4</v>
       </c>
-      <c r="AL22" s="72">
+      <c r="AL22" s="71">
         <f>I22+G24</f>
         <v>4</v>
       </c>
-      <c r="AM22" s="72">
+      <c r="AM22" s="71">
         <f>J22+G25</f>
         <v>4</v>
       </c>
-      <c r="AN22" s="72">
+      <c r="AN22" s="71">
         <f>K22+G26</f>
         <v>4</v>
       </c>
-      <c r="AO22" s="72">
+      <c r="AO22" s="71">
         <f>L22+G27</f>
         <v>4</v>
       </c>
@@ -6978,7 +7115,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="C23" s="41">
         <v>2.5</v>
@@ -7076,42 +7213,42 @@
         <f>IF(N23="","",IF(N23&gt;$H29,1,IF(N23=$H29,0.5,0)))</f>
         <v>0.5</v>
       </c>
-      <c r="AF23" s="71">
+      <c r="AF23" s="70">
         <f>C23+H18</f>
         <v>4</v>
       </c>
-      <c r="AG23" s="72">
+      <c r="AG23" s="71">
         <f>D23+H19</f>
         <v>4</v>
       </c>
-      <c r="AH23" s="72">
+      <c r="AH23" s="71">
         <f>E23+H20</f>
         <v>4</v>
       </c>
-      <c r="AI23" s="72">
+      <c r="AI23" s="71">
         <f>F23+H21</f>
         <v>4</v>
       </c>
-      <c r="AJ23" s="72">
+      <c r="AJ23" s="71">
         <f>G23+H22</f>
         <v>4</v>
       </c>
-      <c r="AK23" s="72" t="s">
+      <c r="AK23" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AL23" s="72">
+      <c r="AL23" s="71">
         <f>I23+H24</f>
         <v>4</v>
       </c>
-      <c r="AM23" s="72">
+      <c r="AM23" s="71">
         <f>J23+H25</f>
         <v>4</v>
       </c>
-      <c r="AN23" s="72">
+      <c r="AN23" s="71">
         <f>K23+H26</f>
         <v>4</v>
       </c>
-      <c r="AO23" s="72">
+      <c r="AO23" s="71">
         <f>L23+H27</f>
         <v>4</v>
       </c>
@@ -7129,7 +7266,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C24" s="41">
         <v>1.5</v>
@@ -7227,42 +7364,42 @@
         <f>IF(N24="","",IF(N24&gt;$I29,1,IF(N24=$I29,0.5,0)))</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="71">
+      <c r="AF24" s="70">
         <f>C24+I18</f>
         <v>4</v>
       </c>
-      <c r="AG24" s="72">
+      <c r="AG24" s="71">
         <f>D24+I19</f>
         <v>4</v>
       </c>
-      <c r="AH24" s="72">
+      <c r="AH24" s="71">
         <f>E24+I20</f>
         <v>4</v>
       </c>
-      <c r="AI24" s="72">
+      <c r="AI24" s="71">
         <f>F24+I21</f>
         <v>4</v>
       </c>
-      <c r="AJ24" s="72">
+      <c r="AJ24" s="71">
         <f>G24+I22</f>
         <v>4</v>
       </c>
-      <c r="AK24" s="72">
+      <c r="AK24" s="71">
         <f>H24+I23</f>
         <v>4</v>
       </c>
-      <c r="AL24" s="72" t="s">
+      <c r="AL24" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AM24" s="72">
+      <c r="AM24" s="71">
         <f>J24+I25</f>
         <v>4</v>
       </c>
-      <c r="AN24" s="72">
+      <c r="AN24" s="71">
         <f>K24+I26</f>
         <v>4</v>
       </c>
-      <c r="AO24" s="72">
+      <c r="AO24" s="71">
         <f>L24+I27</f>
         <v>4</v>
       </c>
@@ -7280,7 +7417,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="C25" s="41">
         <v>1.5</v>
@@ -7378,42 +7515,42 @@
         <f>IF(N25="","",IF(N25&gt;$J29,1,IF(N25=$J29,0.5,0)))</f>
         <v>1</v>
       </c>
-      <c r="AF25" s="71">
+      <c r="AF25" s="70">
         <f>C25+J18</f>
         <v>4</v>
       </c>
-      <c r="AG25" s="72">
+      <c r="AG25" s="71">
         <f>D25+J19</f>
         <v>4</v>
       </c>
-      <c r="AH25" s="72">
+      <c r="AH25" s="71">
         <f>E25+J20</f>
         <v>4</v>
       </c>
-      <c r="AI25" s="72">
+      <c r="AI25" s="71">
         <f>F25+J21</f>
         <v>4</v>
       </c>
-      <c r="AJ25" s="72">
+      <c r="AJ25" s="71">
         <f>G25+J22</f>
         <v>4</v>
       </c>
-      <c r="AK25" s="72">
+      <c r="AK25" s="71">
         <f>H25+J23</f>
         <v>4</v>
       </c>
-      <c r="AL25" s="72">
+      <c r="AL25" s="71">
         <f>I25+J24</f>
         <v>4</v>
       </c>
-      <c r="AM25" s="72" t="s">
+      <c r="AM25" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AN25" s="72">
+      <c r="AN25" s="71">
         <f>K25+J26</f>
         <v>4</v>
       </c>
-      <c r="AO25" s="72">
+      <c r="AO25" s="71">
         <f>L25+J27</f>
         <v>4</v>
       </c>
@@ -7431,7 +7568,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C26" s="41">
         <v>1.5</v>
@@ -7529,42 +7666,42 @@
         <f>IF(N26="","",IF(N26&gt;$K29,1,IF(N26=$K29,0.5,0)))</f>
         <v>1</v>
       </c>
-      <c r="AF26" s="71">
+      <c r="AF26" s="70">
         <f>C26+K18</f>
         <v>4</v>
       </c>
-      <c r="AG26" s="72">
+      <c r="AG26" s="71">
         <f>D26+K19</f>
         <v>4</v>
       </c>
-      <c r="AH26" s="72">
+      <c r="AH26" s="71">
         <f>E26+K20</f>
         <v>4</v>
       </c>
-      <c r="AI26" s="72">
+      <c r="AI26" s="71">
         <f>F26+K21</f>
         <v>4</v>
       </c>
-      <c r="AJ26" s="72">
+      <c r="AJ26" s="71">
         <f>G26+K22</f>
         <v>4</v>
       </c>
-      <c r="AK26" s="72">
+      <c r="AK26" s="71">
         <f>H26+K23</f>
         <v>4</v>
       </c>
-      <c r="AL26" s="72">
+      <c r="AL26" s="71">
         <f>I26+K24</f>
         <v>4</v>
       </c>
-      <c r="AM26" s="72">
+      <c r="AM26" s="71">
         <f>J26+K25</f>
         <v>4</v>
       </c>
-      <c r="AN26" s="72" t="s">
+      <c r="AN26" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AO26" s="72">
+      <c r="AO26" s="71">
         <f>L26+K27</f>
         <v>4</v>
       </c>
@@ -7582,7 +7719,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C27" s="41">
         <v>1.5</v>
@@ -7680,43 +7817,43 @@
         <f>IF(N27="","",IF(N27&gt;$L29,1,IF(N27=$L29,0.5,0)))</f>
         <v>1</v>
       </c>
-      <c r="AF27" s="71">
+      <c r="AF27" s="70">
         <f>C27+L18</f>
         <v>4</v>
       </c>
-      <c r="AG27" s="72">
+      <c r="AG27" s="71">
         <f>D27+L19</f>
         <v>4</v>
       </c>
-      <c r="AH27" s="72">
+      <c r="AH27" s="71">
         <f>E27+L20</f>
         <v>4</v>
       </c>
-      <c r="AI27" s="72">
+      <c r="AI27" s="71">
         <f>F27+L21</f>
         <v>4</v>
       </c>
-      <c r="AJ27" s="72">
+      <c r="AJ27" s="71">
         <f>G27+L22</f>
         <v>4</v>
       </c>
-      <c r="AK27" s="72">
+      <c r="AK27" s="71">
         <f>H27+L23</f>
         <v>4</v>
       </c>
-      <c r="AL27" s="72">
+      <c r="AL27" s="71">
         <f>I27+L24</f>
         <v>4</v>
       </c>
-      <c r="AM27" s="72">
+      <c r="AM27" s="71">
         <f>J27+L25</f>
         <v>4</v>
       </c>
-      <c r="AN27" s="72">
+      <c r="AN27" s="71">
         <f>K27+L26</f>
         <v>4</v>
       </c>
-      <c r="AO27" s="72" t="s">
+      <c r="AO27" s="71" t="s">
         <v>37</v>
       </c>
       <c r="AP27" s="53">
@@ -7733,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C28" s="41">
         <v>1.5</v>
@@ -7884,7 +8021,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="C29" s="46">
         <v>1.5</v>
@@ -8129,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>37</v>
@@ -8280,7 +8417,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C33" s="41">
         <v>1</v>
@@ -8431,7 +8568,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C34" s="41">
         <v>2</v>
@@ -8582,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C35" s="41">
         <v>0.5</v>
@@ -8733,7 +8870,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C36" s="41">
         <v>0</v>
@@ -8884,7 +9021,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C37" s="41">
         <v>0.5</v>
@@ -9035,7 +9172,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C38" s="41">
         <v>0.5</v>
@@ -9186,7 +9323,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C39" s="41">
         <v>1.5</v>
@@ -9337,7 +9474,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C40" s="41">
         <v>1.5</v>
@@ -9488,7 +9625,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C41" s="41">
         <v>0.5</v>
@@ -9639,7 +9776,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C42" s="41">
         <v>1.5</v>
@@ -9790,7 +9927,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C43" s="46">
         <v>1.5</v>
@@ -14685,9 +14822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14722,9 +14857,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -14734,7 +14871,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -14776,7 +14913,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D5" s="18">
         <v>1958</v>
@@ -14788,11 +14925,15 @@
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>67440</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>139</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1996</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -14802,7 +14943,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D6" s="18">
         <v>1891</v>
@@ -14814,11 +14955,15 @@
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>82376</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>140</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1956</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -14828,7 +14973,7 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D7" s="18">
         <v>1876</v>
@@ -14840,11 +14985,15 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>69311</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>157</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1938</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -14854,10 +15003,10 @@
         <v>26816</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -14866,11 +15015,15 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>79901</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>141</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1733</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -14922,9 +15075,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1905.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -14935,9 +15088,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -14947,7 +15102,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -14989,7 +15144,7 @@
         <v>76325</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
         <v>1905</v>
@@ -15003,11 +15158,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>2364</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1861</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -15017,7 +15176,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D16" s="18">
         <v>1881</v>
@@ -15031,11 +15190,15 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>27260</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>143</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1840</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -15045,7 +15208,7 @@
         <v>76333</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D17" s="18">
         <v>1873</v>
@@ -15059,11 +15222,15 @@
       <c r="G17" s="10">
         <v>0.5</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>53775</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>144</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1766</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -15073,7 +15240,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D18" s="18">
         <v>1742</v>
@@ -15087,11 +15254,15 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>23981</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>158</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -15111,9 +15282,9 @@
         <v>2</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1822.3333333333333</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -15124,9 +15295,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15136,7 +15309,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -15178,7 +15351,7 @@
         <v>9954</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D23" s="18">
         <v>1673</v>
@@ -15192,11 +15365,15 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>74501</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1563</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -15206,7 +15383,7 @@
         <v>27715</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D24" s="18">
         <v>1667</v>
@@ -15220,21 +15397,25 @@
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>74802</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1150</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D25" s="18">
         <v>1550</v>
@@ -15248,11 +15429,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>77585</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>146</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1150</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -15262,7 +15447,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D26" s="18">
         <v>1587</v>
@@ -15276,11 +15461,15 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>91774</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>147</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1150</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
@@ -15300,9 +15489,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1253.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -15451,9 +15640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15492,15 +15679,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15538,11 +15727,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>82210</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>149</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1852</v>
+      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
@@ -15554,7 +15747,7 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="J5" s="18">
         <v>1958</v>
@@ -15564,11 +15757,15 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>62782</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>150</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1825</v>
+      </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
@@ -15580,7 +15777,7 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J6" s="18">
         <v>1891</v>
@@ -15590,11 +15787,15 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>97781</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>151</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1809</v>
+      </c>
       <c r="E7" s="10">
         <v>0.5</v>
       </c>
@@ -15606,7 +15807,7 @@
         <v>353</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J7" s="18">
         <v>1876</v>
@@ -15616,11 +15817,15 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>97837</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>152</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1585</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
@@ -15632,10 +15837,10 @@
         <v>26816</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15673,9 +15878,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1767.75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -15705,15 +15910,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -15751,11 +15958,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>19763</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -15769,7 +15980,7 @@
         <v>76325</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J15" s="18">
         <v>1905</v>
@@ -15779,11 +15990,15 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>17043</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1913</v>
+      </c>
       <c r="E16" s="10">
         <v>0.5</v>
       </c>
@@ -15797,7 +16012,7 @@
         <v>9270</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J16" s="18">
         <v>1887</v>
@@ -15807,11 +16022,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>16764</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>155</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1876</v>
+      </c>
       <c r="E17" s="10">
         <v>0.5</v>
       </c>
@@ -15825,7 +16044,7 @@
         <v>76333</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J17" s="18">
         <v>1873</v>
@@ -15835,11 +16054,15 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>42170</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1741</v>
+      </c>
       <c r="E18" s="12">
         <v>0</v>
       </c>
@@ -15853,7 +16076,7 @@
         <v>655</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J18" s="18">
         <v>1779</v>
@@ -15862,9 +16085,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1843.3333333333333</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -15894,15 +16117,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -15940,11 +16165,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>86509</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>159</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1688</v>
+      </c>
       <c r="E23" s="10">
         <v>1</v>
       </c>
@@ -15958,7 +16187,7 @@
         <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J23" s="18">
         <v>1742</v>
@@ -15968,11 +16197,15 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>52094</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1677</v>
+      </c>
       <c r="E24" s="10">
         <v>1</v>
       </c>
@@ -15986,7 +16219,7 @@
         <v>9954</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="J24" s="18">
         <v>1673</v>
@@ -15996,11 +16229,15 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>89401</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>160</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1542</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -16011,10 +16248,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J25" s="18">
         <v>1550</v>
@@ -16024,11 +16261,15 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>91707</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>161</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1421</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -16042,7 +16283,7 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J26" s="18">
         <v>1587</v>
@@ -16051,9 +16292,9 @@
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1582</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -16217,9 +16458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16254,9 +16493,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -16266,7 +16507,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16308,7 +16549,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D5" s="18">
         <v>1958</v>
@@ -16320,11 +16561,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>25992</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>164</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1758</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -16334,7 +16579,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D6" s="18">
         <v>1891</v>
@@ -16346,11 +16591,15 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>65293</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1722</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -16360,7 +16609,7 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D7" s="18">
         <v>1876</v>
@@ -16372,11 +16621,15 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>31739</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>162</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1736</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -16386,10 +16639,10 @@
         <v>26816</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10">
         <v>0.5</v>
@@ -16398,11 +16651,15 @@
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>89958</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>163</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1721</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -16454,9 +16711,9 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1734.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -16467,9 +16724,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16479,7 +16738,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16521,7 +16780,7 @@
         <v>76325</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
         <v>1905</v>
@@ -16535,11 +16794,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>27227</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1877</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -16549,7 +16812,7 @@
         <v>76333</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D16" s="18">
         <v>1873</v>
@@ -16563,11 +16826,15 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>34835</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1757</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -16577,7 +16844,7 @@
         <v>655</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D17" s="18">
         <v>1779</v>
@@ -16591,11 +16858,15 @@
       <c r="G17" s="10">
         <v>0.5</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>9997</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>170</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -16605,7 +16876,7 @@
         <v>33910</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D18" s="18">
         <v>1765</v>
@@ -16619,11 +16890,15 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>36919</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -16643,9 +16918,9 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1817</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -16656,9 +16931,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -16668,7 +16945,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -16710,7 +16987,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D23" s="18">
         <v>1742</v>
@@ -16724,11 +17001,15 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>67164</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>165</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1432</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -16738,7 +17019,7 @@
         <v>9954</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18">
         <v>1673</v>
@@ -16752,21 +17033,25 @@
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>79189</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>166</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1167</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D25" s="18">
         <v>1550</v>
@@ -16780,11 +17065,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>82619</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>167</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1162</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -16794,7 +17083,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D26" s="18">
         <v>1587</v>
@@ -16808,11 +17097,15 @@
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>56723</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>168</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1150</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
@@ -16832,9 +17125,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1227.75</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -16983,9 +17276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17024,15 +17315,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17070,11 +17363,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>95478</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2094</v>
+      </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
@@ -17086,7 +17383,7 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="J5" s="18">
         <v>1958</v>
@@ -17096,11 +17393,15 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>45110</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1982</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
@@ -17112,7 +17413,7 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J6" s="18">
         <v>1891</v>
@@ -17122,11 +17423,15 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>83275</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1975</v>
+      </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -17138,7 +17443,7 @@
         <v>353</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J7" s="18">
         <v>1876</v>
@@ -17148,11 +17453,15 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>86282</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1944</v>
+      </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
@@ -17164,10 +17473,10 @@
         <v>26816</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17205,9 +17514,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1998.75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -17237,15 +17546,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17283,11 +17594,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>46345</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1925</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -17301,7 +17616,7 @@
         <v>9270</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J15" s="18">
         <v>1887</v>
@@ -17311,11 +17626,15 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>6301</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1799</v>
+      </c>
       <c r="E16" s="10">
         <v>0.5</v>
       </c>
@@ -17329,7 +17648,7 @@
         <v>76333</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J16" s="18">
         <v>1873</v>
@@ -17339,11 +17658,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>61476</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1788</v>
+      </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
@@ -17357,7 +17680,7 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J17" s="18">
         <v>1779</v>
@@ -17367,11 +17690,15 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>31852</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>176</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1738</v>
+      </c>
       <c r="E18" s="12">
         <v>0</v>
       </c>
@@ -17385,7 +17712,7 @@
         <v>33910</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J18" s="18">
         <v>1765</v>
@@ -17394,9 +17721,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1812.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -17426,15 +17753,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17472,11 +17801,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="18"/>
+      <c r="B23" s="19">
+        <v>33651</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1737</v>
+      </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
@@ -17490,7 +17823,7 @@
         <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J23" s="18">
         <v>1742</v>
@@ -17500,11 +17833,15 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>21652</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -17518,7 +17855,7 @@
         <v>9954</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="J24" s="18">
         <v>1673</v>
@@ -17528,11 +17865,15 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="18"/>
+      <c r="B25" s="19">
+        <v>22021</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -17543,10 +17884,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J25" s="18">
         <v>1550</v>
@@ -17556,11 +17897,15 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>22641</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>177</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -17574,7 +17919,7 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J26" s="18">
         <v>1587</v>
@@ -17583,9 +17928,9 @@
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1737</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -17749,9 +18094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17786,9 +18129,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17798,7 +18143,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17840,7 +18185,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D5" s="18">
         <v>1958</v>
@@ -17852,11 +18197,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>31381</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1799</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -17866,7 +18215,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D6" s="18">
         <v>1891</v>
@@ -17878,11 +18227,15 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>63975</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>182</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1695</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -17892,7 +18245,7 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D7" s="18">
         <v>1876</v>
@@ -17904,11 +18257,15 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>89621</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1518</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -17918,10 +18275,10 @@
         <v>26816</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -17930,11 +18287,15 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>89036</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1331</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -17986,9 +18347,9 @@
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1585.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -17999,9 +18360,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18011,7 +18374,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -18053,7 +18416,7 @@
         <v>76325</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
         <v>1905</v>
@@ -18067,11 +18430,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>38873</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1845</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -18081,7 +18448,7 @@
         <v>9270</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18">
         <v>1887</v>
@@ -18095,11 +18462,15 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>33316</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>186</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1812</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -18109,7 +18480,7 @@
         <v>76333</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D17" s="18">
         <v>1873</v>
@@ -18123,11 +18494,15 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>41980</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1751</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -18137,7 +18512,7 @@
         <v>655</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D18" s="18">
         <v>1779</v>
@@ -18151,11 +18526,15 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>42056</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>188</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1743</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -18175,9 +18554,9 @@
         <v>1.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1787.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -18188,9 +18567,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18200,7 +18581,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -18242,7 +18623,7 @@
         <v>33910</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D23" s="18">
         <v>1765</v>
@@ -18256,11 +18637,15 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>13846</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>189</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1730</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -18270,7 +18655,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D24" s="18">
         <v>1742</v>
@@ -18284,21 +18669,25 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>8125</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1640</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D25" s="18">
         <v>1550</v>
@@ -18312,11 +18701,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>11193</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -18326,7 +18719,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D26" s="18">
         <v>1587</v>
@@ -18340,11 +18733,15 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>8699</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>191</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
@@ -18364,9 +18761,9 @@
         <v>0.5</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1685</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -18515,9 +18912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18552,9 +18947,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18564,7 +18961,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -18606,7 +19003,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D5" s="18">
         <v>1958</v>
@@ -18620,11 +19017,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>78301</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1919</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -18634,7 +19035,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D6" s="18">
         <v>1891</v>
@@ -18648,11 +19049,15 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>64629</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>193</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1890</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -18662,7 +19067,7 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D7" s="18">
         <v>1876</v>
@@ -18676,25 +19081,25 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>72443</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>194</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1738</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19">
-        <v>26816</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>87</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D8" s="18"/>
       <c r="E8" s="10">
         <v>1</v>
       </c>
@@ -18706,7 +19111,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -18760,9 +19165,9 @@
         <v>2</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1849</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -18773,9 +19178,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18785,7 +19192,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -18827,7 +19234,7 @@
         <v>76325</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
         <v>1905</v>
@@ -18841,11 +19248,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>27502</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1863</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -18855,7 +19266,7 @@
         <v>9270</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18">
         <v>1887</v>
@@ -18869,11 +19280,15 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>11886</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>196</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1859</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -18883,7 +19298,7 @@
         <v>76333</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D17" s="18">
         <v>1873</v>
@@ -18897,11 +19312,15 @@
       <c r="G17" s="10">
         <v>0.5</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>30015</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>198</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1788</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -18911,7 +19330,7 @@
         <v>655</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D18" s="18">
         <v>1779</v>
@@ -18925,11 +19344,15 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>44997</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1710</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -18949,9 +19372,9 @@
         <v>1.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1805</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -18962,9 +19385,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18974,7 +19399,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -19016,7 +19441,7 @@
         <v>33910</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D23" s="18">
         <v>1765</v>
@@ -19030,11 +19455,15 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>46582</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1685</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -19044,7 +19473,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D24" s="18">
         <v>1742</v>
@@ -19058,21 +19487,25 @@
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>62944</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1681</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D25" s="18">
         <v>1550</v>
@@ -19086,11 +19519,15 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>48470</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1647</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -19100,7 +19537,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D26" s="18">
         <v>1587</v>
@@ -19114,11 +19551,15 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>15831</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1487</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
@@ -19138,9 +19579,9 @@
         <v>1.5</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1625</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -19289,9 +19730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19330,15 +19769,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -19378,7 +19819,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -19390,25 +19831,25 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19">
-        <v>2283</v>
-      </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="18">
-        <v>1958</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>59811</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1888</v>
+      </c>
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
@@ -19422,7 +19863,7 @@
         <v>76317</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J6" s="18">
         <v>1891</v>
@@ -19432,11 +19873,15 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>71081</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1812</v>
+      </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -19450,7 +19895,7 @@
         <v>27715</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J7" s="18">
         <v>1667</v>
@@ -19460,11 +19905,15 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>89613</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1785</v>
+      </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
@@ -19478,10 +19927,10 @@
         <v>26816</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -19519,9 +19968,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1828.3333333333333</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -19536,7 +19985,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1838.6666666666667</v>
+        <v>1779</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -19551,15 +20000,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -19597,11 +20048,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>21920</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1876</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -19615,7 +20070,7 @@
         <v>76325</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J15" s="18">
         <v>1905</v>
@@ -19625,11 +20080,15 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>36579</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1845</v>
+      </c>
       <c r="E16" s="10">
         <v>0.5</v>
       </c>
@@ -19643,7 +20102,7 @@
         <v>76333</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J16" s="18">
         <v>1873</v>
@@ -19653,11 +20112,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>41777</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1721</v>
+      </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
@@ -19671,7 +20134,7 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J17" s="18">
         <v>1779</v>
@@ -19681,11 +20144,15 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>62316</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>205</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1711</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -19699,7 +20166,7 @@
         <v>33910</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J18" s="18">
         <v>1765</v>
@@ -19708,9 +20175,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1788.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -19740,15 +20207,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -19786,11 +20255,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>11169</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1982</v>
+      </c>
       <c r="E23" s="10">
         <v>1</v>
       </c>
@@ -19804,7 +20277,7 @@
         <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J23" s="18">
         <v>1742</v>
@@ -19814,11 +20287,15 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>41904</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1505</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -19832,7 +20309,7 @@
         <v>9954</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="J24" s="18">
         <v>1673</v>
@@ -19842,11 +20319,15 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>11070</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1557</v>
+      </c>
       <c r="E25" s="10">
         <v>0.5</v>
       </c>
@@ -19857,10 +20338,10 @@
         <v>0.5</v>
       </c>
       <c r="H25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J25" s="18">
         <v>1550</v>
@@ -19870,11 +20351,15 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>39543</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -19888,7 +20373,7 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J26" s="18">
         <v>1587</v>
@@ -19897,9 +20382,9 @@
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1681.3333333333333</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -20063,9 +20548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20100,9 +20583,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20112,7 +20597,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -20154,7 +20639,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D5" s="18">
         <v>1958</v>
@@ -20168,11 +20653,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>15261</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1927</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -20182,7 +20671,7 @@
         <v>76317</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D6" s="18">
         <v>1891</v>
@@ -20196,11 +20685,15 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>92312</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1922</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -20210,7 +20703,7 @@
         <v>27715</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D7" s="18">
         <v>1667</v>
@@ -20224,11 +20717,15 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>2941</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1624</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -20238,7 +20735,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D8" s="18">
         <v>1587</v>
@@ -20252,11 +20749,15 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>73253</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1558</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -20308,9 +20809,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1757.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -20321,9 +20822,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20333,7 +20836,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -20375,7 +20878,7 @@
         <v>76325</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
         <v>1905</v>
@@ -20389,11 +20892,15 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>57011</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1981</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -20403,7 +20910,7 @@
         <v>9270</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18">
         <v>1887</v>
@@ -20417,11 +20924,15 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>2330</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1909</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -20431,7 +20942,7 @@
         <v>655</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D17" s="18">
         <v>1779</v>
@@ -20445,11 +20956,15 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>52582</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1847</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -20459,7 +20974,7 @@
         <v>33910</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D18" s="18">
         <v>1765</v>
@@ -20473,11 +20988,15 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>19321</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1576</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -20497,9 +21016,9 @@
         <v>2.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1828.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -20510,9 +21029,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20522,7 +21043,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -20564,7 +21085,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D23" s="18">
         <v>1742</v>
@@ -20578,11 +21099,15 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>95419</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="J23" s="18">
+        <v>2250</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -20592,7 +21117,7 @@
         <v>9954</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18">
         <v>1673</v>
@@ -20606,21 +21131,25 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>41688</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1720</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D25" s="18">
         <v>1550</v>
@@ -20634,11 +21163,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>14281</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1482</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -20648,10 +21181,10 @@
         <v>26816</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -20662,11 +21195,15 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>60364</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
@@ -20686,9 +21223,9 @@
         <v>2</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1817.3333333333333</v>
       </c>
       <c r="J27" s="3"/>
     </row>
